--- a/aliyun_ram/user.xlsx
+++ b/aliyun_ram/user.xlsx
@@ -339,322 +339,324 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
-        <v>suxing.zhang3</v>
+        <v>ruby-service-account</v>
       </c>
       <c r="B1" t="str">
-        <v>AliyunRDSReadOnlyAccess,AliyunContainerRegistryReadOnlyAccess,WW-Enterprise-ContainerRegistry-Policy,lstd-101-workshop,</v>
+        <v>AliyunContainerRegistryFullAccess,AliyunAMQPFullAccess,</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>wen.xia</v>
-      </c>
-      <c r="B2" t="str"/>
+        <v>alden.zhu</v>
+      </c>
+      <c r="B2" t="str">
+        <v>AliyunBSSFullAccess,</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>service-billing-oss-user</v>
+        <v>service-china-contracts</v>
       </c>
       <c r="B3" t="str">
-        <v>BillingSquadOssPolicy,ChinaSpacestationOssPolicy,</v>
+        <v>BillingContractsServiceOssPolicy,</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>jack.wu8</v>
+        <v>zehua.mai</v>
       </c>
       <c r="B4" t="str">
-        <v>AliyunRDSFullAccess,AliyunSTSAssumeRoleAccess,AliyunLogFullAccess,AliyunDRDSFullAccess,AliyunDTSFullAccess,AliyunCSFullAccess,StagingRDSFullAccess,AliyunAMQPFullAccess,ProductionSwarmAccess,ChinaBillingFapiaoOssPolicy,ChinaBillingSpacecowboyOssPolicy,</v>
+        <v>AliyunLogFullAccess,AliyunDTSFullAccess,AliyunMQFullAccess,AliyunElasticsearchFullAccess,AliyunCSReadOnlyAccess,AliyunContainerRegistryReadOnlyAccess,StagingRDSFullAccess,AliyunAMQPFullAccess,ProductionSwarmAccess,AliyunACSResourcesAccess-zehua.mai,WW-Enterprise-ContainerRegistry-Policy,</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>richard.li7</v>
+        <v>mike.pan</v>
       </c>
       <c r="B5" t="str">
-        <v>AdministratorAccess,AliyunRDSFullAccess,AliyunContainerRegistryFullAccess,</v>
+        <v>AliyunLogReadOnlyAccess,AliyunCSReadOnlyAccess,AliyunAMQPFullAccess,cluster-jenkins-mike-readonly,WW-Enterprise-ContainerRegistry-Policy,</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>jenkinsci</v>
+        <v>oss-admin-pages-staging</v>
       </c>
       <c r="B6" t="str">
-        <v>JenkinsciOssAccess,</v>
+        <v>WeWorkAdminPagesStagingAccess,</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>xiao.wang</v>
+        <v>data-service</v>
       </c>
       <c r="B7" t="str">
-        <v>AliyunDTSFullAccess,AliyunCSReadOnlyAccess,AliyunAMQPFullAccess,RoomscnProductionDBAdmin,ProductionSwarmAccess,RedshiftDataTransferOssPolicy,ChinaBillingFapiaoOssPolicy,ChinaBillingSpacecowboyOssPolicy,JenkinsSlaveClusterReadOnly,WW-Enterprise-ContainerRegistry-Policy,policy-oss-ww-world-shared-storage,</v>
+        <v>AliyunDataWorksFullAccess,</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>china-www-quincy</v>
+        <v>jiayi.zhang8</v>
       </c>
       <c r="B8" t="str">
-        <v>china-www-quincy,</v>
+        <v>AliyunDirectMailFullAccess,AliyunDysmsFullAccess,lstd-101-workshop,</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>qilong.guo</v>
+        <v>richard.li7</v>
       </c>
       <c r="B9" t="str">
-        <v>AliyunRDSFullAccess,AliyunDataWorksFullAccess,qilong.guo,</v>
+        <v>AdministratorAccess,AliyunRDSFullAccess,AliyunContainerRegistryFullAccess,</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>peng.rao</v>
+        <v>sam.wang7</v>
       </c>
       <c r="B10" t="str">
-        <v>AliyunOSSFullAccess,AliyunRDSReadOnlyAccess,AliyunContainerRegistryFullAccess,AliyunContainerRegistryReadOnlyAccess,StagingWWWOSSAccess,ChinaosDevOSSFullAccess,WW-Enterprise-ContainerRegistry-Policy,lstd-101-workshop,</v>
+        <v>AliyunKvstoreFullAccess,AliyunLogFullAccess,AliyunDirectMailReadOnlyAccess,AliyunDTSFullAccess,AliyunDysmsFullAccess,AliyunMQFullAccess,AliyunElasticsearchFullAccess,AliyunCSFullAccess,AliyunContainerRegistryFullAccess,StagingRDSFullAccess,ProductionRDSFullAccess,StagingSwarmAccess,ProductionSwarmAccess,WW-Enterprise-ContainerRegistry-Policy,</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>jeremy.wu7</v>
-      </c>
-      <c r="B11" t="str"/>
+        <v>service-china-settlement-reports</v>
+      </c>
+      <c r="B11" t="str">
+        <v>BillingSettlementReportsOssPolicy,</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>allen.zhang1</v>
+        <v>mail-nakedhub-com</v>
       </c>
       <c r="B12" t="str">
-        <v>AliyunDataWorksFullAccess,</v>
+        <v>AliyunDirectMailFullAccess,</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>xiaoming.zhu2</v>
+        <v>china-www-quincy</v>
       </c>
       <c r="B13" t="str">
-        <v>AliyunDirectMailReadOnlyAccess,AliyunDysmsFullAccess,AliyunMQFullAccess,AliyunCSReadOnlyAccess,AliyunContainerRegistryReadOnlyAccess,AliyunAMQPFullAccess,ProductionSwarmAccess,WW-Enterprise-ContainerRegistry-Policy,</v>
+        <v>china-www-quincy,</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>dennis.duan2</v>
+        <v>xiaoyu.zhu5</v>
       </c>
       <c r="B14" t="str">
-        <v>AliyunOSSFullAccess,AliyunRDSFullAccess,AliyunRDSReadOnlyAccess,AliyunCloudMonitorFullAccess,wek8s-enigma,wek8s-oracle,</v>
+        <v>AliyunLogReadOnlyAccess,wek8s-enigma,</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>wework-registry</v>
+        <v>service_sms_sender</v>
       </c>
       <c r="B15" t="str">
-        <v>AliyunContainerRegistryFullAccess,WW-Enterprise-ContainerRegistry-Policy-Test,</v>
+        <v>AliyunDysmsFullAccess,</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>root-direct-mail-1578390174-8765</v>
+        <v>service-space-user</v>
       </c>
       <c r="B16" t="str">
-        <v>AliyunDirectMailFullAccess,AliyunDirectMailReadOnlyAccess,</v>
+        <v>M2SSquadOssPolicy,</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>service-china-contracts</v>
+        <v>terraform</v>
       </c>
       <c r="B17" t="str">
-        <v>BillingContractsServiceOssPolicy,</v>
+        <v>AdministratorAccess,AliyunOSSFullAccess,AliyunSLBFullAccess,AliyunRAMFullAccess,AliyunVPCFullAccess,AliyunEIPFullAccess,AliyunCDNFullAccess,AliyunNATGatewayFullAccess,AliyunDNSFullAccess,AliyunCSFullAccess,AliyunKMSFullAccess,AliyunCENFullAccess,AliyunDCDNFullAccess,AliyunPvtzFullAccess,</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>oss-nakedhub-com</v>
-      </c>
-      <c r="B18" t="str">
-        <v>WeWorkNakedhubCom,</v>
-      </c>
+        <v>carlos.yuan</v>
+      </c>
+      <c r="B18" t="str"/>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>li.lin</v>
+        <v>qa-service-account</v>
       </c>
       <c r="B19" t="str">
-        <v>AliyunDirectMailFullAccess,</v>
+        <v>AliyunContainerRegistryFullAccess,</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>han.jiang</v>
+        <v>frontend-service-account</v>
       </c>
       <c r="B20" t="str">
-        <v>AliyunLogReadOnlyAccess,AliyunCSReadOnlyAccess,wek8s-enigma,</v>
+        <v>AliyunContainerRegistryFullAccess,</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>xuan.yu</v>
+        <v>jack.wu8</v>
       </c>
       <c r="B21" t="str">
-        <v>AliyunDirectMailFullAccess,AliyunDysmsFullAccess,</v>
+        <v>AliyunRDSFullAccess,AliyunSTSAssumeRoleAccess,AliyunLogFullAccess,AliyunDRDSFullAccess,AliyunDTSFullAccess,AliyunCSFullAccess,StagingRDSFullAccess,AliyunAMQPFullAccess,ProductionSwarmAccess,ChinaBillingFapiaoOssPolicy,ChinaBillingSpacecowboyOssPolicy,</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>go-oss-ci-user</v>
+        <v>service-door-idcard-user</v>
       </c>
       <c r="B22" t="str">
-        <v>GoSquadOssPolicy,</v>
+        <v>M2SSquadOssPolicy,</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>snowflake-cn</v>
+        <v>martin.loy</v>
       </c>
       <c r="B23" t="str">
-        <v>snowflake-cn,</v>
+        <v>ContainerRegistryPullPushAccess,CircleciOssAccess,</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>jiayi.zhang8</v>
+        <v>lei.hong</v>
       </c>
       <c r="B24" t="str">
-        <v>AliyunDirectMailFullAccess,AliyunDysmsFullAccess,lstd-101-workshop,</v>
+        <v>AliyunDTSFullAccess,AliyunMQFullAccess,AliyunCSReadOnlyAccess,AliyunContainerRegistryFullAccess,AliyunContainerRegistryReadOnlyAccess,StagingRDSFullAccess,ProductionSwarmAccess,WW-Enterprise-ContainerRegistry-Policy,</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>eavan.wei2</v>
+        <v>oss-wework-static</v>
       </c>
       <c r="B25" t="str">
-        <v>AliyunDataWorksFullAccess,</v>
+        <v>ListOSSBuckets,OSSWeWorkStatic,</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>alden.zhu</v>
-      </c>
-      <c r="B26" t="str">
-        <v>AliyunBSSFullAccess,</v>
-      </c>
+        <v>wensi.wang</v>
+      </c>
+      <c r="B26" t="str"/>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>service-alicloud-prom-exporter</v>
+        <v>shuying.tu</v>
       </c>
       <c r="B27" t="str">
-        <v>AliyunCloudMonitorFullAccess,</v>
+        <v>AliyunDirectMailFullAccess,</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>mail-nakedhub-com</v>
+        <v>root-direct-mail-1578390174-8765</v>
       </c>
       <c r="B28" t="str">
-        <v>AliyunDirectMailFullAccess,</v>
+        <v>AliyunDirectMailFullAccess,AliyunDirectMailReadOnlyAccess,</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>www-bucket-user</v>
-      </c>
-      <c r="B29" t="str">
-        <v>WWWOSSAccess,ListOSSBuckets,</v>
-      </c>
+        <v>cary.yu</v>
+      </c>
+      <c r="B29" t="str"/>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>china-os-bucket-user</v>
+        <v>service-alicloud-prom-exporter</v>
       </c>
       <c r="B30" t="str">
-        <v>ChinaosOSSFullAccess,</v>
+        <v>AliyunCloudMonitorFullAccess,</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>cicheng.wang4</v>
+        <v>baseservice.oss</v>
       </c>
       <c r="B31" t="str">
-        <v>AliyunLogFullAccess,AliyunContainerRegistryReadOnlyAccess,WW-Enterprise-ContainerRegistry-Policy,lstd-101-workshop,</v>
+        <v>BaseServiceOssPolicy,</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>root-direct-mail-1578390377-696</v>
+        <v>oss-admin-pages-prod</v>
       </c>
       <c r="B32" t="str">
-        <v>AliyunDirectMailFullAccess,AliyunDirectMailReadOnlyAccess,</v>
+        <v>WeWorkAdminPagesProdAccess,</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>service-sales-efficiency-user</v>
+        <v>wek8s_deploy_user</v>
       </c>
       <c r="B33" t="str">
-        <v>GrowthSquadOssPolicy,</v>
+        <v>AliyunLogFullAccess,AliyunContainerRegistryFullAccess,JenkinsciOssAccess,</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>service-china-settlement-reports</v>
+        <v>www-preprod-bucket-user</v>
       </c>
       <c r="B34" t="str">
-        <v>BillingSettlementReportsOssPolicy,</v>
+        <v>WWWPreprodOSSAccess,ListOSSBuckets,</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>zehua.mai</v>
+        <v>www-dev-bucket-user</v>
       </c>
       <c r="B35" t="str">
-        <v>AliyunLogFullAccess,AliyunDTSFullAccess,AliyunMQFullAccess,AliyunElasticsearchFullAccess,AliyunCSReadOnlyAccess,AliyunContainerRegistryReadOnlyAccess,StagingRDSFullAccess,AliyunAMQPFullAccess,ProductionSwarmAccess,AliyunACSResourcesAccess-zehua.mai,WW-Enterprise-ContainerRegistry-Policy,</v>
+        <v>WWWDevOSSAccess,ListOSSBuckets,</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>china-os-dev-bucket-user</v>
+        <v>service-sales-efficiency-user</v>
       </c>
       <c r="B36" t="str">
-        <v>ChinaosDevOSSFullAccess,</v>
+        <v>GrowthSquadOssPolicy,</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>zihao.jia</v>
-      </c>
-      <c r="B37" t="str"/>
+        <v>bucket-china-tech-blog</v>
+      </c>
+      <c r="B37" t="str">
+        <v>china-tech-blog_access,</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>service-door-idcard-user</v>
+        <v>china-os-bucket-user</v>
       </c>
       <c r="B38" t="str">
-        <v>M2SSquadOssPolicy,</v>
+        <v>ChinaosOSSFullAccess,</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>faceservice.oss</v>
+        <v>qian.zhu</v>
       </c>
       <c r="B39" t="str">
-        <v>FaceServiceOssPolicy,</v>
+        <v>AliyunDataWorksFullAccess,</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>jenkins-test</v>
-      </c>
-      <c r="B40" t="str"/>
+        <v>nps</v>
+      </c>
+      <c r="B40" t="str">
+        <v>nps,</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>sms-ak</v>
+        <v>root-direct-mail-1578390377-696</v>
       </c>
       <c r="B41" t="str">
-        <v>AliyunDysmsFullAccess,</v>
+        <v>AliyunDirectMailFullAccess,AliyunDirectMailReadOnlyAccess,</v>
       </c>
     </row>
     <row r="42">
@@ -667,442 +669,378 @@
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>yang.zhang5</v>
-      </c>
-      <c r="B43" t="str"/>
+        <v>sa-3rd-party-america</v>
+      </c>
+      <c r="B43" t="str">
+        <v>policy-oss-ww-world-shared-storage,</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>lei.tang4</v>
+        <v>qilong.guo</v>
       </c>
       <c r="B44" t="str">
-        <v>AliyunOSSFullAccess,wek8s-enigma,wek8s-oracle,</v>
+        <v>AliyunRDSFullAccess,AliyunDataWorksFullAccess,data-service-account,</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>hongbo.zhao2</v>
-      </c>
-      <c r="B45" t="str">
-        <v>AdministratorAccess,</v>
-      </c>
+        <v>dale.du2</v>
+      </c>
+      <c r="B45" t="str"/>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>nan.zhang</v>
+        <v>circleci</v>
       </c>
       <c r="B46" t="str">
-        <v>AliyunDirectMailFullAccess,</v>
+        <v>CircleciOssAccess,</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>jelen.hu</v>
-      </c>
-      <c r="B47" t="str">
-        <v>AliyunDataWorksFullAccess,</v>
-      </c>
+        <v>service-china-k8s-rbac</v>
+      </c>
+      <c r="B47" t="str"/>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>dendi.tang3</v>
-      </c>
-      <c r="B48" t="str"/>
+        <v>china-os-dev-bucket-user</v>
+      </c>
+      <c r="B48" t="str">
+        <v>ChinaosDevOSSFullAccess,</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>terraform</v>
+        <v>jian.zhou</v>
       </c>
       <c r="B49" t="str">
-        <v>AdministratorAccess,AliyunOSSFullAccess,AliyunSLBFullAccess,AliyunRAMFullAccess,AliyunVPCFullAccess,AliyunEIPFullAccess,AliyunCDNFullAccess,AliyunNATGatewayFullAccess,AliyunDNSFullAccess,AliyunCSFullAccess,AliyunKMSFullAccess,AliyunCENFullAccess,AliyunDCDNFullAccess,AliyunPvtzFullAccess,</v>
+        <v>AliyunDataWorksFullAccess,data-service-account,</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>ruixiang.li9</v>
-      </c>
-      <c r="B50" t="str"/>
+        <v>hongbo.zhao2</v>
+      </c>
+      <c r="B50" t="str">
+        <v>AdministratorAccess,</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>zhenwei.liu</v>
+        <v>su.yin2</v>
       </c>
       <c r="B51" t="str"/>
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>qing.xu</v>
-      </c>
-      <c r="B52" t="str">
-        <v>AliyunLogFullAccess,</v>
-      </c>
+        <v>hashicorp-vault</v>
+      </c>
+      <c r="B52" t="str"/>
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>benson.xu</v>
+        <v>service-query-metrics</v>
       </c>
       <c r="B53" t="str">
-        <v>AliyunActionTrailReadOnlyAccess,</v>
+        <v>QueryCloudMonitorMetricsAccess,</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>candice.li2</v>
+        <v>jelen.hu</v>
       </c>
       <c r="B54" t="str">
-        <v>AliyunDirectMailReadOnlyAccess,AliyunMQFullAccess,AliyunCSReadOnlyAccess,AliyunContainerRegistryReadOnlyAccess,WW-Enterprise-ContainerRegistry-Policy,</v>
+        <v>AliyunDataWorksFullAccess,</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>green-web-api</v>
+        <v>data-service-account</v>
       </c>
       <c r="B55" t="str">
-        <v>AliyunYundunGreenWebFullAccess,</v>
+        <v>AliyunContainerRegistryFullAccess,</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>yifei.liu7</v>
-      </c>
-      <c r="B56" t="str">
-        <v>AliyunRDSReadOnlyAccess,AliyunCSReadOnlyAccess,AliyunContainerRegistryReadOnlyAccess,WW-Enterprise-ContainerRegistry-Policy,lstd-101-workshop,</v>
-      </c>
+        <v>sso-service-account</v>
+      </c>
+      <c r="B56" t="str"/>
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>jinghua.wang6</v>
+        <v>service_dm_sender</v>
       </c>
       <c r="B57" t="str">
-        <v>AliyunOSSFullAccess,wek8s-enigma,</v>
+        <v>AliyunDirectMailFullAccess,</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>sa-3rd-party-america</v>
+        <v>sms-ak</v>
       </c>
       <c r="B58" t="str">
-        <v>policy-oss-ww-world-shared-storage,</v>
+        <v>AliyunDysmsFullAccess,</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>data-service</v>
+        <v>laiye</v>
       </c>
       <c r="B59" t="str">
-        <v>AliyunDataWorksFullAccess,</v>
+        <v>AliyunYundunBastionHostReadOnlyAccess,LaiyeSwarmClusterAdmin,</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>dale.du2</v>
-      </c>
-      <c r="B60" t="str"/>
+        <v>java-service-account</v>
+      </c>
+      <c r="B60" t="str">
+        <v>AliyunMQFullAccess,AliyunContainerRegistryFullAccess,AliyunAMQPFullAccess,java-service-account,</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>service-bill-exporter</v>
+        <v>sa-3rd-party-nebula</v>
       </c>
       <c r="B61" t="str">
-        <v>BillExporterServiceOssPolicy,</v>
+        <v>policy-oss-wework-nebula-resources,</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>paul.zhang</v>
+        <v>ashton.du</v>
       </c>
       <c r="B62" t="str">
-        <v>PaulZhangOSSPolicy,</v>
+        <v>AliyunDataWorksFullAccess,</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>rock.yu</v>
+        <v>eavan.wei2</v>
       </c>
       <c r="B63" t="str">
-        <v>AliyunRDSReadOnlyAccess,AliyunLogFullAccess,AliyunDTSFullAccess,AliyunMQFullAccess,AliyunElasticsearchFullAccess,AliyunCSReadOnlyAccess,AliyunContainerRegistryReadOnlyAccess,ProductionSwarmAccess,WW-Enterprise-ContainerRegistry-Policy,</v>
+        <v>AliyunDataWorksFullAccess,</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>sa-3rd-party-nebula</v>
-      </c>
-      <c r="B64" t="str">
-        <v>policy-oss-wework-nebula-resources,</v>
-      </c>
+        <v>andy.zhang</v>
+      </c>
+      <c r="B64" t="str"/>
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>AliyunOSSTokenGeneratorUser</v>
+        <v>paul.zhang</v>
       </c>
       <c r="B65" t="str">
-        <v>AliyunOSSTokenGeneratorUserPolicy,</v>
+        <v>PaulZhangOSSPolicy,</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>oss-wework-static</v>
-      </c>
-      <c r="B66" t="str">
-        <v>ListOSSBuckets,OSSWeWorkStatic,</v>
-      </c>
+        <v>hongbo.zhao</v>
+      </c>
+      <c r="B66" t="str"/>
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>circleci</v>
+        <v>li.lin</v>
       </c>
       <c r="B67" t="str">
-        <v>CircleciOssAccess,</v>
+        <v>AliyunDirectMailFullAccess,</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>shuying.tu</v>
+        <v>allen.zhang1</v>
       </c>
       <c r="B68" t="str">
-        <v>AliyunDirectMailFullAccess,</v>
+        <v>AliyunDataWorksFullAccess,</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>service-wework-cn-website</v>
+        <v>www-staging-bucket-user</v>
       </c>
       <c r="B69" t="str">
-        <v>policy-oss-wework-cn-website,</v>
+        <v>WWWStagingOSSAccess,ListOSSBuckets,</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>min.liu4</v>
-      </c>
-      <c r="B70" t="str"/>
+        <v>oss-nakedhub-com</v>
+      </c>
+      <c r="B70" t="str">
+        <v>WeWorkNakedhubCom,</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>hashicorp-vault</v>
-      </c>
-      <c r="B71" t="str"/>
+        <v>weihao.zhao</v>
+      </c>
+      <c r="B71" t="str">
+        <v>AliyunDataWorksFullAccess,</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>thanos-kunkka</v>
+        <v>faceservice.oss</v>
       </c>
       <c r="B72" t="str">
-        <v>ThanosKunkkaOssPolicy,</v>
+        <v>FaceServiceOssPolicy,</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>lei.hong</v>
+        <v>thanos-kunkka</v>
       </c>
       <c r="B73" t="str">
-        <v>AliyunDTSFullAccess,AliyunMQFullAccess,AliyunCSReadOnlyAccess,AliyunContainerRegistryFullAccess,AliyunContainerRegistryReadOnlyAccess,StagingRDSFullAccess,ProductionSwarmAccess,WW-Enterprise-ContainerRegistry-Policy,</v>
+        <v>ThanosKunkkaOssPolicy,</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>www-preprod-bucket-user</v>
+        <v>go-oss-ci-user</v>
       </c>
       <c r="B74" t="str">
-        <v>WWWPreprodOSSAccess,ListOSSBuckets,</v>
+        <v>GoSquadOssPolicy,</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>xiaoyu.zhu5</v>
+        <v>service-datadog-integration</v>
       </c>
       <c r="B75" t="str">
-        <v>AliyunLogReadOnlyAccess,wek8s-enigma,</v>
+        <v>AliyunECSReadOnlyAccess,AliyunRDSReadOnlyAccess,AliyunSLBReadOnlyAccess,AliyunKvstoreReadOnlyAccess,AliyunCloudMonitorReadOnlyAccess,</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>www-dev-bucket-user</v>
-      </c>
-      <c r="B76" t="str">
-        <v>WWWDevOSSAccess,ListOSSBuckets,</v>
-      </c>
+        <v>jenkins-test</v>
+      </c>
+      <c r="B76" t="str"/>
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>andy.zhang</v>
-      </c>
-      <c r="B77" t="str"/>
+        <v>snowflake-cn</v>
+      </c>
+      <c r="B77" t="str">
+        <v>snowflake-cn,</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>baseservice.oss</v>
+        <v>wework-registry</v>
       </c>
       <c r="B78" t="str">
-        <v>BaseServiceOssPolicy,</v>
+        <v>AliyunContainerRegistryFullAccess,WW-Enterprise-ContainerRegistry-Policy-Test,</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>service-query-metrics</v>
+        <v>service-billing-oss-user</v>
       </c>
       <c r="B79" t="str">
-        <v>QueryCloudMonitorMetricsAccess,</v>
+        <v>BillingSquadOssPolicy,ChinaSpacestationOssPolicy,</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>bucket-china-tech-blog</v>
+        <v>service-bill-exporter</v>
       </c>
       <c r="B80" t="str">
-        <v>china-tech-blog_access,</v>
+        <v>BillExporterServiceOssPolicy,</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>wek8s_deploy_user</v>
+        <v>www-bucket-user</v>
       </c>
       <c r="B81" t="str">
-        <v>AliyunLogFullAccess,AliyunContainerRegistryFullAccess,JenkinsciOssAccess,</v>
+        <v>WWWOSSAccess,ListOSSBuckets,</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>service-china-k8s-rbac</v>
-      </c>
-      <c r="B82" t="str"/>
+        <v>AliyunOSSTokenGeneratorUser</v>
+      </c>
+      <c r="B82" t="str">
+        <v>AliyunOSSTokenGeneratorUserPolicy,</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>nancy.zhao2</v>
-      </c>
-      <c r="B83" t="str"/>
+        <v>xiao.wang</v>
+      </c>
+      <c r="B83" t="str">
+        <v>AliyunDTSFullAccess,AliyunCSReadOnlyAccess,AliyunAMQPFullAccess,RoomscnProductionDBAdmin,ProductionSwarmAccess,RedshiftDataTransferOssPolicy,ChinaBillingFapiaoOssPolicy,ChinaBillingSpacecowboyOssPolicy,JenkinsSlaveClusterReadOnly,WW-Enterprise-ContainerRegistry-Policy,policy-oss-ww-world-shared-storage,</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>mike.pan</v>
+        <v>ep-service-account</v>
       </c>
       <c r="B84" t="str">
-        <v>AliyunLogReadOnlyAccess,AliyunCSReadOnlyAccess,AliyunAMQPFullAccess,cluster-jenkins-mike-readonly,WW-Enterprise-ContainerRegistry-Policy,</v>
+        <v>AdministratorAccess,AliyunContainerRegistryFullAccess,</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>oss-admin-pages-staging</v>
+        <v>yifei.liu7</v>
       </c>
       <c r="B85" t="str">
-        <v>WeWorkAdminPagesStagingAccess,</v>
+        <v>AliyunRDSReadOnlyAccess,AliyunCSReadOnlyAccess,AliyunContainerRegistryReadOnlyAccess,WW-Enterprise-ContainerRegistry-Policy,lstd-101-workshop,</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>martin.loy</v>
+        <v>xuan.yu</v>
       </c>
       <c r="B86" t="str">
-        <v>ContainerRegistryPullPushAccess,CircleciOssAccess,</v>
+        <v>AliyunDirectMailFullAccess,AliyunDysmsFullAccess,</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>service_sms_sender</v>
+        <v>service-wework-cn-website</v>
       </c>
       <c r="B87" t="str">
-        <v>AliyunDysmsFullAccess,</v>
+        <v>policy-oss-wework-cn-website,</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>service-space-user</v>
+        <v>rock.yu</v>
       </c>
       <c r="B88" t="str">
-        <v>M2SSquadOssPolicy,</v>
+        <v>AliyunRDSReadOnlyAccess,AliyunLogFullAccess,AliyunDTSFullAccess,AliyunMQFullAccess,AliyunElasticsearchFullAccess,AliyunCSReadOnlyAccess,AliyunContainerRegistryReadOnlyAccess,ProductionSwarmAccess,WW-Enterprise-ContainerRegistry-Policy,</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>service_dm_sender</v>
+        <v>jenkinsci</v>
       </c>
       <c r="B89" t="str">
-        <v>AliyunDirectMailFullAccess,</v>
+        <v>JenkinsciOssAccess,</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="str">
-        <v>www-staging-bucket-user</v>
+        <v>green-web-api</v>
       </c>
       <c r="B90" t="str">
-        <v>WWWStagingOSSAccess,ListOSSBuckets,</v>
+        <v>AliyunYundunGreenWebFullAccess,</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="str">
-        <v>yuhao.liu8</v>
+        <v>xiangbing.zhang6</v>
       </c>
       <c r="B91" t="str">
-        <v>AliyunOSSFullAccess,wek8s-enigma,wek8s-oracle,</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="str">
-        <v>su.yin2</v>
-      </c>
-      <c r="B92" t="str"/>
-    </row>
-    <row r="93">
-      <c r="A93" t="str">
-        <v>ashton.du</v>
-      </c>
-      <c r="B93" t="str">
-        <v>AliyunDataWorksFullAccess,</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="str">
-        <v>sam.wang7</v>
-      </c>
-      <c r="B94" t="str">
-        <v>AliyunKvstoreFullAccess,AliyunLogFullAccess,AliyunDirectMailReadOnlyAccess,AliyunDTSFullAccess,AliyunDysmsFullAccess,AliyunMQFullAccess,AliyunElasticsearchFullAccess,AliyunCSFullAccess,AliyunContainerRegistryFullAccess,StagingRDSFullAccess,ProductionRDSFullAccess,StagingSwarmAccess,ProductionSwarmAccess,WW-Enterprise-ContainerRegistry-Policy,</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="str">
-        <v>service-datadog-integration</v>
-      </c>
-      <c r="B95" t="str">
-        <v>AliyunECSReadOnlyAccess,AliyunRDSReadOnlyAccess,AliyunSLBReadOnlyAccess,AliyunKvstoreReadOnlyAccess,AliyunCloudMonitorReadOnlyAccess,</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="str">
-        <v>ruby-service-account</v>
-      </c>
-      <c r="B96" t="str">
-        <v>AliyunAMQPFullAccess,</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="str">
-        <v>jiyang.tang4</v>
-      </c>
-      <c r="B97" t="str">
-        <v>AliyunOSSReadOnlyAccess,AliyunRDSReadOnlyAccess,AliyunContainerRegistryReadOnlyAccess,WW-Enterprise-ContainerRegistry-Policy,lstd-101-workshop,</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="str">
-        <v>cary.yu</v>
-      </c>
-      <c r="B98" t="str"/>
-    </row>
-    <row r="99">
-      <c r="A99" t="str">
-        <v>oss-admin-pages-prod</v>
-      </c>
-      <c r="B99" t="str">
-        <v>WeWorkAdminPagesProdAccess,</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="str">
-        <v>wenshun.chen3</v>
-      </c>
-      <c r="B100" t="str">
-        <v>AliyunElasticsearchFullAccess,AliyunCSReadOnlyAccess,</v>
+        <v>AliyunSLBFullAccess,AliyunKvstoreFullAccess,AliyunLogFullAccess,AliyunDTSFullAccess,AliyunMQFullAccess,AliyunCSReadOnlyAccess,AliyunContainerRegistryReadOnlyAccess,StagingRDSFullAccess,AliyunAMQPFullAccess,ProductionSwarmAccess,WW-Enterprise-ContainerRegistry-Policy,</v>
       </c>
     </row>
   </sheetData>
